--- a/data/1.names_withsynonyms_withweights_sparsematrices.xlsx
+++ b/data/1.names_withsynonyms_withweights_sparsematrices.xlsx
@@ -1,137 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Agents-projects\poc-names-customembeddings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC80AD1-2CFB-4B7A-9729-93047C22223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>synonyms</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>vinod katari</t>
+  </si>
+  <si>
+    <t>{"vinod katar": 1.0, "vinod kat": 0.90, "vinod k": 0.7}</t>
+  </si>
+  <si>
+    <t>[0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
     <t>vinodkumar nallamogla</t>
   </si>
   <si>
-    <t>vinod katari</t>
+    <t>{"vinod kumar nallamgola": 1.0, "vinodkumar n": 0.95, "vinod nallamgola": 0.9, "vinod n": 0.8}</t>
+  </si>
+  <si>
+    <t>[1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
   </si>
   <si>
     <t>vinod yerra</t>
   </si>
   <si>
+    <t>{"vinod yerra": 1.0, "vinod ye": 0.95, "vinod y": 0.7}</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
     <t>bharath moti</t>
   </si>
   <si>
+    <t>{"bharath moti": 1.0, "bharath mot": 0.95, "bharath m": 0.8}</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
     <t>bharath motikayala</t>
   </si>
   <si>
+    <t>{"bharath motikayala": 1.0, "bharath motikaya": 0.95, "bharath mk": 0.8}</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
     <t>ramesh katari</t>
   </si>
   <si>
+    <t>{"ramesh katari": 1.0, "ramesh katar": 0.95, "ramesh k": 0.7}</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
     <t>ramesh dugasani</t>
   </si>
   <si>
+    <t>{"ramesh dugasani": 1.0, "ramesh dugsa": 0.95, "ramesh d": 0.7}</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>satish dugasasni</t>
+  </si>
+  <si>
+    <t>{"satish dugasani": 1.0, "satish duga": 0.9, "satish d": 0.8}</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0]</t>
+  </si>
+  <si>
     <t>venu yerra</t>
   </si>
   <si>
-    <t>{"vinod katar": 1.0, "vinod kat": 0.90, "vinod k": 0.7}</t>
-  </si>
-  <si>
-    <t>{"vinod yerra": 1.0, "vinod ye": 0.95, "vinod y": 0.7}</t>
-  </si>
-  <si>
-    <t>{"bharath moti": 1.0, "bharath mot": 0.95, "bharath m": 0.8}</t>
-  </si>
-  <si>
-    <t>{"bharath motikayala": 1.0, "bharath motikaya": 0.95, "bharath mk": 0.8}</t>
-  </si>
-  <si>
-    <t>{"ramesh katari": 1.0, "ramesh katar": 0.95, "ramesh k": 0.7}</t>
-  </si>
-  <si>
-    <t>satish dugasasni</t>
-  </si>
-  <si>
-    <t>{"satish dugasani": 1.0, "satish duga": 0.9, "satish d": 0.8}</t>
-  </si>
-  <si>
-    <t>{"vinod kumar nallamgola": 1.0, "vinodkumar n": 0.95, "vinod nallamgola": 0.9, "vinod n": 0.8}</t>
-  </si>
-  <si>
-    <t>{"ramesh dugasani": 1.0, "ramesh dugsa": 0.95, "ramesh d": 0.7}</t>
-  </si>
-  <si>
     <t>{"venu yerra": 1.0, "venu yer": 0.9, "venu y": 0.8}</t>
   </si>
   <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0]</t>
+  </si>
+  <si>
     <t>sasi dugasani</t>
   </si>
   <si>
     <t>{"sasi dugasani": 1.0, "sasi duga": 0.9, "sasi d": 0.8}</t>
   </si>
   <si>
-    <t>[1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0]</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>vector</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>synonyms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,14 +137,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
@@ -172,16 +172,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -189,35 +189,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -228,10 +234,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -269,71 +275,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -361,7 +367,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -384,11 +390,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -397,13 +403,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -413,7 +419,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -422,7 +428,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -431,7 +437,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -439,10 +445,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -507,218 +513,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.21875" customWidth="1"/>
-    <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" customWidth="1"/>
-    <col min="20" max="20" width="19.5546875" customWidth="1"/>
-    <col min="21" max="21" width="18.44140625" customWidth="1"/>
-    <col min="22" max="22" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" style="7" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="65.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="38.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="9.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>30</v>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="32.25" customFormat="1" s="1">
+      <c r="A3" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="32.25" customFormat="1" s="1">
       <c r="A4" s="4">
         <v>1003</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="32.25" customFormat="1" s="1">
       <c r="A5" s="4">
         <v>1004</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="32.25" customFormat="1" s="1">
       <c r="A6" s="4">
         <v>1005</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="32.25" customFormat="1" s="1">
       <c r="A7" s="4">
         <v>1006</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="32.25" customFormat="1" s="1">
       <c r="A8" s="4">
         <v>1007</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="32.25" customFormat="1" s="1">
       <c r="A9" s="4">
         <v>1008</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="32.25" customFormat="1" s="1">
       <c r="A10" s="4">
         <v>1009</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E10" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A11" s="4">
         <v>1010</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E11" s="4">
         <v>36</v>
@@ -726,6 +719,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/1.names_withsynonyms_withweights_sparsematrices.xlsx
+++ b/data/1.names_withsynonyms_withweights_sparsematrices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Agents-projects\poc-names-customembeddings\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Agents-projects\custom_embeddings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC80AD1-2CFB-4B7A-9729-93047C22223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30D6844-9ECB-40B2-B5F5-53F6AFDDB006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,12 +82,27 @@
     <t>{"sasi dugasani": 1.0, "sasi duga": 0.9, "sasi d": 0.8}</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>synonyms</t>
+  </si>
+  <si>
+    <t>[0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
     <t>[1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
   </si>
   <si>
-    <t>[0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t>[0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
   </si>
   <si>
@@ -106,25 +121,10 @@
     <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0]</t>
   </si>
   <si>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0]</t>
+  </si>
+  <si>
     <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0]</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>vector</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>synonyms</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,19 +539,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4">
         <v>34</v>
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4">
         <v>32</v>
@@ -599,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4">
         <v>30</v>
@@ -616,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4">
         <v>25</v>
@@ -633,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4">
         <v>26</v>
@@ -650,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4">
         <v>29</v>
@@ -667,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4">
         <v>30</v>
@@ -684,7 +684,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4">
         <v>38</v>
@@ -701,7 +701,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4">
         <v>42</v>
@@ -718,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4">
         <v>36</v>
